--- a/TestSeleniumMode/Excel/TestSeleniumCase.xlsx
+++ b/TestSeleniumMode/Excel/TestSeleniumCase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36092"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="1.0.1.36093"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="160" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="140" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="parameter" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="parameter" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>行号</t>
   </si>
@@ -644,6 +645,126 @@
   </si>
   <si>
     <t>5000</t>
+  </si>
+  <si>
+    <t>#geetest_slider_button</t>
+  </si>
+  <si>
+    <t>movePhoto</t>
+  </si>
+  <si>
+    <t>滑动验证码</t>
+  </si>
+  <si>
+    <t>https://www.geetest.com/demo/slide-bind.html</t>
+  </si>
+  <si>
+    <t>打开网页</t>
+  </si>
+  <si>
+    <t>验证码</t>
+  </si>
+  <si>
+    <t>#btn</t>
+  </si>
+  <si>
+    <t>div[class = 'geetest_slider_button']</t>
+  </si>
+  <si>
+    <t>1855,937</t>
+  </si>
+  <si>
+    <t>1000,500</t>
+  </si>
+  <si>
+    <t>https://www.geetest.com/demo/slide-float.html</t>
+  </si>
+  <si>
+    <t>#geetest_radar_tip</t>
+  </si>
+  <si>
+    <t>.geetest_radar_tip</t>
+  </si>
+  <si>
+    <t>https://www.geetest.com/demo/slide-popup.html</t>
+  </si>
+  <si>
+    <t>token,authList,roleList,userName,</t>
+  </si>
+  <si>
+    <t>token,authList,roleList,userName</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>token,authList,userName,roleList</t>
+  </si>
+  <si>
+    <t>李俊33491</t>
+  </si>
+  <si>
+    <t>13216668274</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>13126668274</t>
+  </si>
+  <si>
+    <t>15110252587</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>获取session</t>
+  </si>
+  <si>
+    <t>等待10分钟</t>
+  </si>
+  <si>
+    <t>1200000</t>
+  </si>
+  <si>
+    <t>div[]</t>
+  </si>
+  <si>
+    <t>div[class='review-box']</t>
+  </si>
+  <si>
+    <t>div[class='review-box']:nth-child(3)</t>
+  </si>
+  <si>
+    <t>div[class='left-content-list']&gt;ul:nth-child(3)</t>
+  </si>
+  <si>
+    <t>点击家校训练</t>
+  </si>
+  <si>
+    <t>li[]</t>
+  </si>
+  <si>
+    <t>li[class='reviewActive']&gt;div</t>
+  </si>
+  <si>
+    <t>ul &gt; li.reviewActive &gt; div &gt; div &gt; div.review-border-left-hover-name</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div[1]/div/div[2]/ul/li[9]/div/div/div[3]</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div[1]/div/div[2]/ul/li[9]/div/div/div[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div/div[1]/div/div[2]/ul/li[8]/div/div/div[2]</t>
+  </si>
+  <si>
+    <t>点击学院管理</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -1651,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -1666,6 +1787,168 @@
     <col min="5" max="5" style="5" width="12.07439910" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="5" width="22.13223087" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="5" width="35.83602725" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="5" width="15.21747218" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F1 F2 F2 F3 F4:F1048522">
+      <formula1>"driver,element"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E1 E2 E2 E3 E4:E1048522">
+      <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I1 I2 I2 I3 I4:I1048522">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G3 G4:G1048569">
+      <formula1>"null,get,click,clear,sendKeys,frame,alert,moveToElement,getText,getUrl,back,Thead,close,getCookie,setCookie,getSession,setSession,refresh,getTitle,getNameTitle,getWindowHandle,getWindowsHandles,defaultWindouws,switchWindows"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.500000"/>
+  <cols>
+    <col min="1" max="1" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="5" width="17.48048412" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="5" width="63.87223636" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="5" width="12.07439910" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="5" width="22.13223087" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="5" width="31.05855762" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="5" width="15.21747218" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
@@ -1737,25 +2020,25 @@
         <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>173</v>
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>34</v>
@@ -1766,13 +2049,13 @@
         <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>45</v>
@@ -1784,7 +2067,7 @@
         <v>47</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>34</v>
@@ -1795,13 +2078,13 @@
         <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>45</v>
@@ -1810,10 +2093,10 @@
         <v>24</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>34</v>
@@ -1824,13 +2107,13 @@
         <v>79</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>45</v>
@@ -1839,13 +2122,13 @@
         <v>24</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1853,27 +2136,27 @@
         <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>98</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1882,7 +2165,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -1890,35 +2173,122 @@
       <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>202</v>
+      <c r="G8" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F1 F2:F6 F2:F6 F7 F8:F1048528 F7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F1 F2 F3:F5 F2 F3:F5 F6 F7:F9 F10 F11:F1048527 F6">
       <formula1>"driver,element"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E1 E2:E6 E2:E6 E7 E8:E1048528 E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E1 E2 E3:E5 E2 E3:E5 E6 E7:E9 E10 E11:E1048527 E6">
       <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I1 I2:I6 I2:I6 I7 I8:I1048528 I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I1 I2 I3:I5 I2 I3:I5 I6 I7:I9 I10 I11:I1048527 I6">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G1048575">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2 G3:G9 G10 G11:G1048574">
       <formula1>"null,get,click,clear,sendKeys,frame,alert,moveToElement,getText,getUrl,back,Thead,close,getCookie,setCookie,getSession,setSession,refresh,getTitle,getNameTitle,getWindowHandle,getWindowsHandles,defaultWindouws,switchWindows"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1930,12 +2300,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B25"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
@@ -2053,8 +2423,12 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
@@ -2139,24 +2513,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.500000"/>
   <cols>
     <col min="1" max="1" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" style="5" width="17.48048412" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="5" width="55.44880115" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="5" width="22.25795375" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="5" width="46.14530765" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="5" width="35.83602725" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="5" width="12.07439910" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="5" width="22.13223087" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="5" width="35.83602725" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="5" width="46.64819919" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="5" width="15.21747218" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" style="5" width="9.05704891" customWidth="1" outlineLevel="0"/>
   </cols>
@@ -2198,7 +2572,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>27</v>
@@ -2216,7 +2590,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>34</v>
@@ -2227,25 +2601,25 @@
         <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>208</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>34</v>
@@ -2253,28 +2627,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>34</v>
@@ -2307,17 +2681,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F1 F2:F7 F2:F7 F8 F9:F1048529 F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F1 F2 F4:F7 F3 F4 F3 F2 F4:F7 F3 F4 F3 F8 F9:F1048529 F8">
       <formula1>"driver,element"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E1 E2:E7 E2:E7 E8 E9:E1048529 E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E1 E2 E4:E7 E3 E4 E3 E2 E4:E7 E3 E4 E3 E8 E9:E1048529 E8">
       <formula1>"null,cssselector,xpath,id,name,classname,tagname,linktext,partiallinktext"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I1 I2:I7 I2:I7 I8 I9:I1048529 I8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I1 I2 I4:I7 I3 I4 I3 I2 I4:I7 I3 I4 I3 I8 I9:I1048529 I8">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 G2:G1048576">
-      <formula1>"null,get,click,clear,sendKeys,frame,alert,moveToElement,getText,getUrl,back,Thead,close,getCookie,setCookie,getSession,setSession,refresh,getTitle,getNameTitle,getWindowHandle,getWindowsHandles,defaultWindouws,switchWindows"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G4:G1048576 G3 G4 G3">
+      <formula1>"null,get,click,clear,sendKeys,frame,alert,moveToElement,getText,getUrl,back,Thead,close,movePhoto,getCookie,setCookie,getSession,setSession,refresh,getTitle,getNameTitle,getWindowHandle,getWindowsHandles,defaultWindouws,switchWindows"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
